--- a/Common/Excel/Datas/item.xlsx
+++ b/Common/Excel/Datas/item.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="20304" windowHeight="8364"/>
+    <workbookView windowWidth="13725" windowHeight="12390"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1360,24 +1360,24 @@
   <dimension ref="A1:AI15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H7" sqref="H7"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.8"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25"/>
   <cols>
-    <col min="1" max="1" width="9.22222222222222" customWidth="1"/>
+    <col min="1" max="1" width="9.225" customWidth="1"/>
     <col min="2" max="2" width="6.75" customWidth="1"/>
     <col min="3" max="3" width="11" customWidth="1"/>
-    <col min="4" max="4" width="12.3796296296296" customWidth="1"/>
+    <col min="4" max="4" width="12.3833333333333" customWidth="1"/>
     <col min="5" max="5" width="5.5" customWidth="1"/>
     <col min="6" max="6" width="18.75" customWidth="1"/>
     <col min="7" max="7" width="16.5" customWidth="1"/>
-    <col min="8" max="8" width="13.1296296296296" customWidth="1"/>
-    <col min="9" max="9" width="12.3796296296296" customWidth="1"/>
-    <col min="10" max="10" width="17.8796296296296" customWidth="1"/>
+    <col min="8" max="8" width="13.1333333333333" customWidth="1"/>
+    <col min="9" max="9" width="12.3833333333333" customWidth="1"/>
+    <col min="10" max="10" width="17.8833333333333" customWidth="1"/>
     <col min="11" max="11" width="28" customWidth="1"/>
     <col min="12" max="12" width="13" customWidth="1"/>
-    <col min="13" max="13" width="5.12962962962963" customWidth="1"/>
+    <col min="13" max="13" width="5.13333333333333" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:35">
